--- a/Rleased/BOM/H07R8.xlsx
+++ b/Rleased/BOM/H07R8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HEXABITZ\Modules\Hardware\Modules Hardware Design\H07R8x-Hardware\Rleased\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D8FF90-B8EB-4593-BEC8-21FC3882F291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BE8ED5-7D0C-4306-9CC0-3E175441442D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2640" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="H07R8" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="162">
   <si>
     <t>Description</t>
   </si>
@@ -82,12 +82,6 @@
     <t>Panasonic</t>
   </si>
   <si>
-    <t>10TPU4R7MSI</t>
-  </si>
-  <si>
-    <t>https://octopart.com/10tpu4r7msi-panasonic-29487748?r=sp</t>
-  </si>
-  <si>
     <t>Vishay</t>
   </si>
   <si>
@@ -166,9 +160,6 @@
     <t>https://octopart.com/cstne8m00g550000r0-murata-91406934?r=sp</t>
   </si>
   <si>
-    <t>CAP TANT 4.7 UF 10V 20% 0805</t>
-  </si>
-  <si>
     <t>CAP CER 1 UF 16V X7R 0805</t>
   </si>
   <si>
@@ -280,15 +271,9 @@
     <t>R4</t>
   </si>
   <si>
-    <t>https://octopart.com/cl10b104ka8nnnc-samsung-19831573?r=sp</t>
-  </si>
-  <si>
     <t>Samsung Electro-Mechanics</t>
   </si>
   <si>
-    <t>CL10B104KA8NNNC</t>
-  </si>
-  <si>
     <t>CAP CER 0.1UF 25V X7R 0603</t>
   </si>
   <si>
@@ -490,21 +475,6 @@
     <t>https://octopart.com/grm188r61a105ka61j-murata-9221870?r=sp</t>
   </si>
   <si>
-    <t>C8, C9, C13</t>
-  </si>
-  <si>
-    <t>C1, C2, C4, C6, C45</t>
-  </si>
-  <si>
-    <t>CAP CER 0.1 UF 10% X7R 0603</t>
-  </si>
-  <si>
-    <t>C0603C104K8RACTU</t>
-  </si>
-  <si>
-    <t>https://octopart.com/c0603c104k8ractu-kemet-145075?r=sp&amp;s=9bS9ASSwSEqMCE9KBEQZ0g</t>
-  </si>
-  <si>
     <t>TVS DIODE 3,3V 10,9V SOD323</t>
   </si>
   <si>
@@ -518,6 +488,30 @@
   </si>
   <si>
     <t>D2</t>
+  </si>
+  <si>
+    <t>CAP CER 4.7UF 16V X7R 0805</t>
+  </si>
+  <si>
+    <t>C0805C475K4RACTU</t>
+  </si>
+  <si>
+    <t>KEMET [VA]</t>
+  </si>
+  <si>
+    <t>https://octopart.com/c0805c475k4ractu-kemet-22859922?r=sp</t>
+  </si>
+  <si>
+    <t>C1, C2, C4, C6, C45 , C8, C9, C13</t>
+  </si>
+  <si>
+    <t>CGA3E2X8R1E104K080AE</t>
+  </si>
+  <si>
+    <t>TDK</t>
+  </si>
+  <si>
+    <t>https://octopart.com/cga3e2x8r1e104k080ae-tdk-68305753?r=sp</t>
   </si>
 </sst>
 </file>
@@ -1201,6 +1195,18 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1221,18 +1227,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1650,10 +1644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G39"/>
+  <dimension ref="A2:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1697,11 +1691,11 @@
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="21">
         <v>0</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1709,16 +1703,16 @@
         <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="22">
         <v>45342</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1726,14 +1720,14 @@
         <v>10</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
       <c r="G6" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1758,19 +1752,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F9" s="16">
         <v>1</v>
@@ -1778,19 +1772,19 @@
     </row>
     <row r="10" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>22</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>24</v>
       </c>
       <c r="F10" s="16">
         <v>1</v>
@@ -1798,19 +1792,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C11" s="14">
         <v>1751248</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F11" s="16">
         <v>3</v>
@@ -1818,19 +1812,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F12" s="16">
         <v>1</v>
@@ -1838,19 +1832,19 @@
     </row>
     <row r="13" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F13" s="16">
         <v>5</v>
@@ -1858,19 +1852,19 @@
     </row>
     <row r="14" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F14" s="16">
         <v>6</v>
@@ -1878,19 +1872,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="16">
         <v>1</v>
@@ -1898,19 +1892,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F16" s="16">
         <v>2</v>
@@ -1918,19 +1912,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D17" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>60</v>
       </c>
       <c r="F17" s="16">
         <v>3</v>
@@ -1938,19 +1932,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F18" s="16">
         <v>1</v>
@@ -1958,19 +1952,19 @@
     </row>
     <row r="19" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F19" s="16">
         <v>4</v>
@@ -1978,319 +1972,319 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F20" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F21" s="16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F22" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="F23" s="16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>51</v>
+        <v>144</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>25</v>
+        <v>147</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="F24" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="16">
         <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F25" s="16">
-        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F26" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="F27" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="F28" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>145</v>
+        <v>33</v>
       </c>
       <c r="F29" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="F30" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="F31" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F32" s="16">
+    <row r="32" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F32" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="E33" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="F33" s="27">
+    <row r="33" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="F34" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F35" s="16">
         <v>1</v>
@@ -2298,19 +2292,19 @@
     </row>
     <row r="36" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="F36" s="16">
         <v>1</v>
@@ -2318,61 +2312,41 @@
     </row>
     <row r="37" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F37" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="F38" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F39" s="16">
         <v>1</v>
       </c>
     </row>
@@ -2387,10 +2361,10 @@
     <hyperlink ref="E10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="E13" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="E17" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E24" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="E28" r:id="rId6" xr:uid="{CA2BC9B7-037F-4782-ACB8-2D8F29264691}"/>
-    <hyperlink ref="E32" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="E30" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E23" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="E31" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E29" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E21" r:id="rId8" xr:uid="{7D1DC8D6-C188-4A28-B0E9-FDA9F0378D1C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId9"/>
